--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22401.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22401.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22401.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22401.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bergkamen</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22401.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22401.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,147 +515,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Suliman</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rawan</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>03-11-1992</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>TEL SHIR</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Syrian Arab Republic</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Budak</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Esma</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>02-06-1998</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sishli</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>011</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Mülheim an der Ruhr</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Bulca</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Melike Nur</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>01-01-1997</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Iskilip</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>011</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Bergkamen</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22401.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB22401.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,147 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Suliman</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rawan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>03-11-1992</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TEL SHIR</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Budak</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Esma</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>02-06-1998</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sishli</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mülheim an der Ruhr</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bulca</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Melike Nur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01-01-1997</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Iskilip</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bergkamen</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
